--- a/testData/Driver.xlsx
+++ b/testData/Driver.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abhinav.dagar\eclipse-workspace\platformOne\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4325457C-F305-4454-932A-E01601812A67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA703E30-911A-4A44-8C85-EF55745150CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{36864276-C195-4033-AAC0-6E76CEDE8C85}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="15">
   <si>
     <t>TestName</t>
   </si>
@@ -78,6 +78,9 @@
   </si>
   <si>
     <t>DataNexusMonitoring</t>
+  </si>
+  <si>
+    <t>DataNexusTransformationPipeline</t>
   </si>
 </sst>
 </file>
@@ -449,10 +452,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD62453D-DA91-4664-9784-0086E4F2EC4E}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -546,6 +549,14 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s">
         <v>2</v>
       </c>
     </row>

--- a/testData/Driver.xlsx
+++ b/testData/Driver.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abhinav.dagar\eclipse-workspace\platformOne\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA703E30-911A-4A44-8C85-EF55745150CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C6D2494-1B8E-4ED5-8B0B-DD004829BBED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{36864276-C195-4033-AAC0-6E76CEDE8C85}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="17">
   <si>
     <t>TestName</t>
   </si>
@@ -81,6 +81,12 @@
   </si>
   <si>
     <t>DataNexusTransformationPipeline</t>
+  </si>
+  <si>
+    <t>DataNexusDataLake</t>
+  </si>
+  <si>
+    <t>DataNexusDocumentParser</t>
   </si>
 </sst>
 </file>
@@ -452,10 +458,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD62453D-DA91-4664-9784-0086E4F2EC4E}">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -506,7 +512,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
@@ -514,7 +520,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
@@ -522,7 +528,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
         <v>11</v>
@@ -530,7 +536,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
         <v>11</v>
@@ -538,7 +544,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
         <v>11</v>
@@ -546,7 +552,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
@@ -554,10 +560,26 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
         <v>14</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B13" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
